--- a/Chl_SIO_pier_forcode.xlsx
+++ b/Chl_SIO_pier_forcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyssia\Desktop\Research_Material_Dr_T\Python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2CB85E-D351-4B3A-931A-B5210A5DD5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552CD52-8B4B-4C35-AEF3-E3E936CBD3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Chl_SIO_pier_forcode.xlsx
+++ b/Chl_SIO_pier_forcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyssia\Desktop\Research_Material_Dr_T\Python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C27A6C-107A-4E63-AC0A-8CE780A2AFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A19BF5-5B34-4217-9C00-1E939B1302E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="21 &amp; 22 June 2021" sheetId="3" r:id="rId3"/>
     <sheet name="Dilution_Fraction" sheetId="6" r:id="rId4"/>
     <sheet name="not_working_data" sheetId="4" r:id="rId5"/>
-    <sheet name="working_data" sheetId="5" r:id="rId6"/>
+    <sheet name="working_data_exp1" sheetId="5" r:id="rId6"/>
+    <sheet name="working_data_exp2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="178">
   <si>
     <t>Trilogy Fluorometer, calibrated 23 April 2021</t>
   </si>
@@ -719,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -859,6 +860,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -33697,41 +33699,41 @@
     </row>
     <row r="46" spans="1:24" ht="28.5" customHeight="1">
       <c r="A46" s="39"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="82"/>
     </row>
     <row r="47" spans="1:24" ht="15.5">
       <c r="A47" s="39"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="81"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="82"/>
     </row>
     <row r="48" spans="1:24" ht="15.5">
       <c r="A48" s="39"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
     </row>
     <row r="49" spans="1:21" ht="15.5">
       <c r="A49" s="39"/>
       <c r="G49" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
     </row>
     <row r="50" spans="1:21" ht="15.5">
       <c r="A50" s="39"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
     </row>
     <row r="51" spans="1:21" ht="28.5" customHeight="1">
       <c r="A51" s="39"/>
@@ -33748,10 +33750,10 @@
         <v>50</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="81"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
     </row>
     <row r="52" spans="1:21" ht="15.5">
       <c r="A52" s="39"/>
@@ -33890,7 +33892,7 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+    <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:Q27"/>
     </sheetView>
   </sheetViews>
@@ -42670,7 +42672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC62284-8782-40A2-98D4-94A5D66A26F8}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -42891,8 +42895,8 @@
   </sheetPr>
   <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -56834,8 +56838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B838BAB-43D6-4EC3-9D7F-3DF3470597F4}">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -61157,1985 +61161,2182 @@
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" t="s">
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF76F118-2B29-4A54-ACE7-89610F464ED2}">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="80" customFormat="1">
+      <c r="A1" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>177</v>
       </c>
-      <c r="B89">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C89">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89" s="79">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G89">
+      <c r="G2">
         <v>88</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>288</v>
       </c>
-      <c r="J89">
+      <c r="J2">
         <v>800.04</v>
       </c>
-      <c r="K89">
+      <c r="K2">
         <v>296824.40999999997</v>
       </c>
-      <c r="M89">
+      <c r="M2">
         <v>186415.16</v>
       </c>
-      <c r="P89">
+      <c r="P2">
         <v>7</v>
       </c>
-      <c r="Q89">
+      <c r="Q2">
         <v>2.4346288892466101</v>
       </c>
-      <c r="R89">
+      <c r="R2">
         <v>0.48803006209936228</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
-      <c r="A90" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>177</v>
       </c>
-      <c r="B90">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C90">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D90">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E90" s="79">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G90">
+      <c r="G3">
         <v>89</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>288</v>
       </c>
-      <c r="J90">
+      <c r="J3">
         <v>800.04</v>
       </c>
-      <c r="K90">
+      <c r="K3">
         <v>229365.73</v>
       </c>
-      <c r="M90">
+      <c r="M3">
         <v>139612.31</v>
       </c>
-      <c r="O90">
+      <c r="O3">
         <v>812.55</v>
       </c>
-      <c r="P90">
+      <c r="P3">
         <v>7</v>
       </c>
-      <c r="Q90">
+      <c r="Q3">
         <v>1.9791482076065599</v>
       </c>
-      <c r="R90">
+      <c r="R3">
         <v>0.20972509829618363</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
-      <c r="A91" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>177</v>
       </c>
-      <c r="B91">
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C91">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D91">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E91" s="79">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F91">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G91">
+      <c r="G4">
         <v>90</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>288</v>
       </c>
-      <c r="J91">
+      <c r="J4">
         <v>800.04</v>
       </c>
-      <c r="K91">
+      <c r="K4">
         <v>224238.56</v>
       </c>
-      <c r="M91">
+      <c r="M4">
         <v>138209.09</v>
       </c>
-      <c r="O91">
+      <c r="O4">
         <v>785.3</v>
       </c>
-      <c r="P91">
+      <c r="P4">
         <v>7</v>
       </c>
-      <c r="Q91">
+      <c r="Q4">
         <v>1.8970315710737515</v>
       </c>
-      <c r="R91">
+      <c r="R4">
         <v>0.26984173497003322</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
-      <c r="A92" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B92">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" s="79">
-        <v>1</v>
-      </c>
-      <c r="F92">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G92">
+      <c r="G5">
         <v>91</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>288</v>
       </c>
-      <c r="J92">
+      <c r="J5">
         <v>934.33</v>
       </c>
-      <c r="K92">
+      <c r="K5">
         <v>77189.100000000006</v>
       </c>
-      <c r="M92">
+      <c r="M5">
         <v>49613.42</v>
       </c>
-      <c r="P92">
+      <c r="P5">
         <v>7</v>
       </c>
-      <c r="Q92">
+      <c r="Q5">
         <v>0.61433613568627476</v>
       </c>
-      <c r="R92">
+      <c r="R5">
         <v>0.13726583279705867</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
-      <c r="A93" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B93">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E93" s="79">
-        <v>1</v>
-      </c>
-      <c r="F93">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G93">
+      <c r="G6">
         <v>92</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>288</v>
       </c>
-      <c r="J93">
+      <c r="J6">
         <v>934.33</v>
       </c>
-      <c r="K93">
+      <c r="K6">
         <v>84216.34</v>
       </c>
-      <c r="M93">
+      <c r="M6">
         <v>60799.66</v>
       </c>
-      <c r="P93">
+      <c r="P6">
         <v>7</v>
       </c>
-      <c r="Q93">
+      <c r="Q6">
         <v>0.52168115897058809</v>
       </c>
-      <c r="R93">
+      <c r="R6">
         <v>0.39938302364607881</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
-      <c r="A94" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="B94">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E94" s="79">
-        <v>1</v>
-      </c>
-      <c r="F94">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G94">
+      <c r="G7">
         <v>93</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>288</v>
       </c>
-      <c r="J94">
+      <c r="J7">
         <v>934.33</v>
       </c>
-      <c r="K94">
+      <c r="K7">
         <v>72071.240000000005</v>
       </c>
-      <c r="M94">
+      <c r="M7">
         <v>45238.77</v>
       </c>
-      <c r="P94">
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="Q94">
+      <c r="Q7">
         <v>0.59777876486519632</v>
       </c>
-      <c r="R94">
+      <c r="R7">
         <v>8.7550901659803532E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
-      <c r="A95" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B95">
+      <c r="B8">
         <v>40</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" s="79">
-        <v>1</v>
-      </c>
-      <c r="F95">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G95">
+      <c r="G8">
         <v>94</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>288</v>
       </c>
-      <c r="J95">
+      <c r="J8">
         <v>934.33</v>
       </c>
-      <c r="K95">
+      <c r="K8">
         <v>137597.71</v>
       </c>
-      <c r="M95">
+      <c r="M8">
         <v>87852.68</v>
       </c>
-      <c r="P95">
+      <c r="P8">
         <v>7</v>
       </c>
-      <c r="Q95">
+      <c r="Q8">
         <v>1.1082290445710785</v>
       </c>
-      <c r="R95">
+      <c r="R8">
         <v>0.22266584686225444</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
-      <c r="A96" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="B96">
+      <c r="B9">
         <v>40</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E96" s="79">
-        <v>1</v>
-      </c>
-      <c r="F96">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G96">
+      <c r="G9">
         <v>95</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>288</v>
       </c>
-      <c r="J96">
+      <c r="J9">
         <v>934.33</v>
       </c>
-      <c r="K96">
+      <c r="K9">
         <v>111682.01</v>
       </c>
-      <c r="M96">
+      <c r="M9">
         <v>95743.15</v>
       </c>
-      <c r="P96">
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="Q96">
+      <c r="Q9">
         <v>0.35508889208333339</v>
       </c>
-      <c r="R96">
+      <c r="R9">
         <v>1.0953400444583337</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
-      <c r="A97" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="B97">
+      <c r="B10">
         <v>40</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E97" s="79">
-        <v>1</v>
-      </c>
-      <c r="F97">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G97">
+      <c r="G10">
         <v>96</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>288</v>
       </c>
-      <c r="J97">
+      <c r="J10">
         <v>934.33</v>
       </c>
-      <c r="K97">
+      <c r="K10">
         <v>98520.59</v>
       </c>
-      <c r="M97">
+      <c r="M10">
         <v>66371.78</v>
       </c>
-      <c r="P97">
+      <c r="P10">
         <v>7</v>
       </c>
-      <c r="Q97">
+      <c r="Q10">
         <v>0.71621717768382354</v>
       </c>
-      <c r="R97">
+      <c r="R10">
         <v>0.28925997949950999</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
-      <c r="A98" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B98">
+      <c r="B11">
         <v>60</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" s="79">
-        <v>1</v>
-      </c>
-      <c r="F98">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G98">
+      <c r="G11">
         <v>97</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>288</v>
       </c>
-      <c r="J98">
+      <c r="J11">
         <v>934.33</v>
       </c>
-      <c r="K98">
+      <c r="K11">
         <v>213361.89</v>
       </c>
-      <c r="M98">
+      <c r="M11">
         <v>132822.15</v>
       </c>
-      <c r="P98">
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="Q98">
+      <c r="Q11">
         <v>1.7942793302205891</v>
       </c>
-      <c r="R98">
+      <c r="R11">
         <v>0.21786555715441086</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
-      <c r="A99" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B99">
+      <c r="B12">
         <v>60</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E99" s="79">
-        <v>1</v>
-      </c>
-      <c r="F99">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G99">
+      <c r="G12">
         <v>98</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>288</v>
       </c>
-      <c r="J99">
+      <c r="J12">
         <v>934.33</v>
       </c>
-      <c r="K99">
+      <c r="K12">
         <v>239439.76</v>
       </c>
-      <c r="M99">
+      <c r="M12">
         <v>150009.29</v>
       </c>
-      <c r="P99">
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="Q99">
+      <c r="Q12">
         <v>1.9923486692769612</v>
       </c>
-      <c r="R99">
+      <c r="R12">
         <v>0.28016706648137235</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
-      <c r="A100" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B100">
+      <c r="B13">
         <v>60</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E100" s="79">
-        <v>1</v>
-      </c>
-      <c r="F100">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="G100">
+      <c r="G13">
         <v>99</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>288</v>
       </c>
-      <c r="J100">
+      <c r="J13">
         <v>934.33</v>
       </c>
-      <c r="K100">
+      <c r="K13">
         <v>205350</v>
       </c>
-      <c r="M100">
+      <c r="M13">
         <v>129103.03999999999</v>
       </c>
-      <c r="P100">
+      <c r="P13">
         <v>7</v>
       </c>
-      <c r="Q100">
+      <c r="Q13">
         <v>1.6986439777450983</v>
       </c>
-      <c r="R100">
+      <c r="R13">
         <v>0.25715949238823466</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
-      <c r="A101" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B101">
+      <c r="B14">
         <v>80</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" s="79">
-        <v>1</v>
-      </c>
-      <c r="F101">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G101">
+      <c r="G14">
         <v>100</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>288</v>
       </c>
-      <c r="J101">
+      <c r="J14">
         <v>934.33</v>
       </c>
-      <c r="K101">
+      <c r="K14">
         <v>277645.56</v>
       </c>
-      <c r="M101">
+      <c r="M14">
         <v>177426.78</v>
       </c>
-      <c r="P101">
+      <c r="P14">
         <v>7</v>
       </c>
-      <c r="Q101">
+      <c r="Q14">
         <v>2.2326926490441177</v>
       </c>
-      <c r="R101">
+      <c r="R14">
         <v>0.45517521230588276</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
-      <c r="A102" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c r="B102">
+      <c r="B15">
         <v>80</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E102" s="79">
-        <v>1</v>
-      </c>
-      <c r="F102">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G102">
+      <c r="G15">
         <v>101</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>288</v>
       </c>
-      <c r="J102">
+      <c r="J15">
         <v>934.33</v>
       </c>
-      <c r="K102">
+      <c r="K15">
         <v>275267.03000000003</v>
       </c>
-      <c r="M102">
+      <c r="M15">
         <v>171915.23</v>
       </c>
-      <c r="P102">
+      <c r="P15">
         <v>7</v>
       </c>
-      <c r="Q102">
+      <c r="Q15">
         <v>2.3024906522058832</v>
       </c>
-      <c r="R102">
+      <c r="R15">
         <v>0.30188181960245103</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
-      <c r="A103" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B103">
+      <c r="B16">
         <v>80</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E103" s="79">
-        <v>1</v>
-      </c>
-      <c r="F103">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="G103">
+      <c r="G16">
         <v>102</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>288</v>
       </c>
-      <c r="J103">
+      <c r="J16">
         <v>934.33</v>
       </c>
-      <c r="K103">
+      <c r="K16">
         <v>328070.43</v>
       </c>
-      <c r="M103">
+      <c r="M16">
         <v>208240.78</v>
       </c>
-      <c r="P103">
+      <c r="P16">
         <v>7</v>
       </c>
-      <c r="Q103">
+      <c r="Q16">
         <v>2.6695872639093139</v>
       </c>
-      <c r="R103">
+      <c r="R16">
         <v>0.48508701910735258</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
-      <c r="A104" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B104">
+      <c r="B17">
         <v>100</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104" s="79">
-        <v>1</v>
-      </c>
-      <c r="F104">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G104">
+      <c r="G17">
         <v>103</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>288</v>
       </c>
-      <c r="J104">
+      <c r="J17">
         <v>934.33</v>
       </c>
-      <c r="K104">
+      <c r="K17">
         <v>332757.71000000002</v>
       </c>
-      <c r="M104">
+      <c r="M17">
         <v>244438.06</v>
       </c>
-      <c r="P104">
+      <c r="P17">
         <v>7</v>
       </c>
-      <c r="Q104">
+      <c r="Q17">
         <v>1.9676016143995105</v>
       </c>
-      <c r="R104">
+      <c r="R17">
         <v>1.7354312962171565</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
-      <c r="A105" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="B105">
+      <c r="B18">
         <v>100</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E105" s="79">
-        <v>1</v>
-      </c>
-      <c r="F105">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G105">
+      <c r="G18">
         <v>104</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>288</v>
       </c>
-      <c r="J105">
+      <c r="J18">
         <v>934.33</v>
       </c>
-      <c r="K105">
+      <c r="K18">
         <v>335466.25</v>
       </c>
-      <c r="M105">
+      <c r="M18">
         <v>248146.26</v>
       </c>
-      <c r="P105">
+      <c r="P18">
         <v>7</v>
       </c>
-      <c r="Q105">
+      <c r="Q18">
         <v>1.9453310027083333</v>
       </c>
-      <c r="R105">
+      <c r="R18">
         <v>1.8138780477416672</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
-      <c r="A106" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="B106">
+      <c r="B19">
         <v>100</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E106" s="79">
-        <v>1</v>
-      </c>
-      <c r="F106">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G106">
+      <c r="G19">
         <v>105</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>288</v>
       </c>
-      <c r="J106">
+      <c r="J19">
         <v>934.33</v>
       </c>
-      <c r="K106">
+      <c r="K19">
         <v>357178.43</v>
       </c>
-      <c r="M106">
+      <c r="M19">
         <v>227249.15</v>
       </c>
-      <c r="P106">
+      <c r="P19">
         <v>7</v>
       </c>
-      <c r="Q106">
+      <c r="Q19">
         <v>2.8945887023529413</v>
       </c>
-      <c r="R106">
+      <c r="R19">
         <v>0.54804654585539214</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
-      <c r="A107" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="B107">
+      <c r="B20">
         <v>100</v>
       </c>
-      <c r="C107">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" s="79">
-        <v>1</v>
-      </c>
-      <c r="F107">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G107">
+      <c r="G20">
         <v>106</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>288</v>
       </c>
-      <c r="J107">
+      <c r="J20">
         <v>934.33</v>
       </c>
-      <c r="K107">
+      <c r="K20">
         <v>338253.87</v>
       </c>
-      <c r="M107">
+      <c r="M20">
         <v>214920.04</v>
       </c>
-      <c r="P107">
+      <c r="P20">
         <v>7</v>
       </c>
-      <c r="Q107">
+      <c r="Q20">
         <v>2.7476540386887254</v>
       </c>
-      <c r="R107">
+      <c r="R20">
         <v>0.50820546727794202</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
-      <c r="A108" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="B108">
+      <c r="B21">
         <v>100</v>
       </c>
-      <c r="C108">
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="D108">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E108" s="79">
-        <v>1</v>
-      </c>
-      <c r="F108">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="G108">
+      <c r="G21">
         <v>107</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>288</v>
       </c>
-      <c r="J108">
+      <c r="J21">
         <v>934.33</v>
       </c>
-      <c r="K108">
+      <c r="K21">
         <v>303494.15000000002</v>
       </c>
-      <c r="M108">
+      <c r="M21">
         <v>193276.93</v>
       </c>
-      <c r="P108">
+      <c r="P21">
         <v>7</v>
       </c>
-      <c r="Q108">
+      <c r="Q21">
         <v>2.4554397578186284</v>
       </c>
-      <c r="R108">
+      <c r="R21">
         <v>0.47254466757303853</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
-      <c r="A109" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="B109">
+      <c r="B22">
         <v>100</v>
       </c>
-      <c r="C109">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D109">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E109" s="79">
-        <v>1</v>
-      </c>
-      <c r="F109">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="G109">
+      <c r="G22">
         <v>108</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>288</v>
       </c>
-      <c r="J109">
+      <c r="J22">
         <v>934.33</v>
       </c>
-      <c r="K109">
+      <c r="K22">
         <v>446538.03</v>
       </c>
-      <c r="M109">
+      <c r="M22">
         <v>293755.25</v>
       </c>
-      <c r="P109">
+      <c r="P22">
         <v>7</v>
       </c>
-      <c r="Q109">
+      <c r="Q22">
         <v>3.4037232323774518</v>
       </c>
-      <c r="R109">
+      <c r="R22">
         <v>1.0464240090808821</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
-      <c r="A110" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="B110">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" s="79">
-        <v>1</v>
-      </c>
-      <c r="F110">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="G110">
+      <c r="G23">
         <v>112</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>288</v>
       </c>
-      <c r="J110">
+      <c r="J23">
         <v>934.33</v>
       </c>
-      <c r="K110">
+      <c r="K23">
         <v>78697.87</v>
       </c>
-      <c r="M110">
+      <c r="M23">
         <v>50118.98</v>
       </c>
-      <c r="P110">
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="Q110">
+      <c r="Q23">
         <v>0.63668583493872533</v>
       </c>
-      <c r="R110">
+      <c r="R23">
         <v>0.12257494624460805</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
-      <c r="A111" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
         <v>75</v>
       </c>
-      <c r="B111">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E111" s="79">
-        <v>1</v>
-      </c>
-      <c r="F111">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="G111">
+      <c r="G24">
         <v>113</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>288</v>
       </c>
-      <c r="J111">
+      <c r="J24">
         <v>934.33</v>
       </c>
-      <c r="K111">
+      <c r="K24">
         <v>69641.789999999994</v>
       </c>
-      <c r="M111">
+      <c r="M24">
         <v>44154.03</v>
       </c>
-      <c r="P111">
+      <c r="P24">
         <v>7</v>
       </c>
-      <c r="Q111">
+      <c r="Q24">
         <v>0.56782106499999996</v>
       </c>
-      <c r="R111">
+      <c r="R24">
         <v>0.10107569447500003</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
-      <c r="A112" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B112">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E112" s="79">
-        <v>1</v>
-      </c>
-      <c r="F112">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="G112">
+      <c r="G25">
         <v>114</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>288</v>
       </c>
-      <c r="J112">
+      <c r="J25">
         <v>934.33</v>
       </c>
-      <c r="K112">
+      <c r="K25">
         <v>70309.84</v>
       </c>
-      <c r="M112">
+      <c r="M25">
         <v>45663.32</v>
       </c>
-      <c r="P112">
+      <c r="P25">
         <v>7</v>
       </c>
-      <c r="Q112">
+      <c r="Q25">
         <v>0.54907976357843136</v>
       </c>
-      <c r="R112">
+      <c r="R25">
         <v>0.14268148165490191</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
-      <c r="A113" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="B113">
+      <c r="B26">
         <v>40</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" s="79">
-        <v>1</v>
-      </c>
-      <c r="F113">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G113">
+      <c r="G26">
         <v>115</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>288</v>
       </c>
-      <c r="J113">
+      <c r="J26">
         <v>934.33</v>
       </c>
-      <c r="K113">
+      <c r="K26">
         <v>179566.28</v>
       </c>
-      <c r="M113">
+      <c r="M26">
         <v>113900.89</v>
       </c>
-      <c r="P113">
+      <c r="P26">
         <v>7</v>
       </c>
-      <c r="Q113">
+      <c r="Q26">
         <v>1.4629057902083336</v>
       </c>
-      <c r="R113">
+      <c r="R26">
         <v>0.2625977758833335</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
-      <c r="A114" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B114">
+      <c r="B27">
         <v>40</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E114" s="79">
-        <v>1</v>
-      </c>
-      <c r="F114">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="G114">
+      <c r="G27">
         <v>116</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>288</v>
       </c>
-      <c r="J114">
+      <c r="J27">
         <v>934.33</v>
       </c>
-      <c r="K114">
+      <c r="K27">
         <v>171362.07</v>
       </c>
-      <c r="M114">
+      <c r="M27">
         <v>108815.26</v>
       </c>
-      <c r="P114">
+      <c r="P27">
         <v>7</v>
       </c>
-      <c r="Q114">
+      <c r="Q27">
         <v>1.3934294840563728</v>
       </c>
-      <c r="R114">
+      <c r="R27">
         <v>0.2550310255602935</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
-      <c r="A115" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B115">
+      <c r="B28">
         <v>40</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E115" s="79">
-        <v>1</v>
-      </c>
-      <c r="F115">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="G115">
+      <c r="G28">
         <v>117</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>288</v>
       </c>
-      <c r="J115">
+      <c r="J28">
         <v>934.33</v>
       </c>
-      <c r="K115">
+      <c r="K28">
         <v>180521.2</v>
       </c>
-      <c r="M115">
+      <c r="M28">
         <v>115821.34</v>
       </c>
-      <c r="P115">
+      <c r="P28">
         <v>7</v>
       </c>
-      <c r="Q115">
+      <c r="Q28">
         <v>1.4413955330147064</v>
       </c>
-      <c r="R115">
+      <c r="R28">
         <v>0.31320125020196005</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
-      <c r="A116" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B116">
+      <c r="B29">
         <v>60</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" s="79">
-        <v>1</v>
-      </c>
-      <c r="F116">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G116">
+      <c r="G29">
         <v>118</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>288</v>
       </c>
-      <c r="J116">
+      <c r="J29">
         <v>934.33</v>
       </c>
-      <c r="K116">
+      <c r="K29">
         <v>212295.54</v>
       </c>
-      <c r="M116">
+      <c r="M29">
         <v>136466.82</v>
       </c>
-      <c r="P116">
+      <c r="P29">
         <v>7</v>
       </c>
-      <c r="Q116">
+      <c r="Q29">
         <v>1.6893263491176471</v>
       </c>
-      <c r="R116">
+      <c r="R29">
         <v>0.37803225153235309</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
-      <c r="A117" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="B117">
+      <c r="B30">
         <v>60</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="E117" s="79">
-        <v>1</v>
-      </c>
-      <c r="F117">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="G117">
+      <c r="G30">
         <v>119</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>288</v>
       </c>
-      <c r="J117">
+      <c r="J30">
         <v>934.33</v>
       </c>
-      <c r="K117">
+      <c r="K30">
         <v>201611.42</v>
       </c>
-      <c r="M117">
+      <c r="M30">
         <v>130322.87</v>
       </c>
-      <c r="P117">
+      <c r="P30">
         <v>7</v>
       </c>
-      <c r="Q117">
+      <c r="Q30">
         <v>1.5881795961397065</v>
       </c>
-      <c r="R117">
+      <c r="R30">
         <v>0.38610328196862664</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
-      <c r="A118" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
         <v>81</v>
       </c>
-      <c r="B118">
+      <c r="B31">
         <v>60</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E118" s="79">
-        <v>1</v>
-      </c>
-      <c r="F118">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="G118">
+      <c r="G31">
         <v>120</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>288</v>
       </c>
-      <c r="J118">
+      <c r="J31">
         <v>934.33</v>
       </c>
-      <c r="K118">
+      <c r="K31">
         <v>214420.85</v>
       </c>
-      <c r="M118">
+      <c r="M31">
         <v>135199.67999999999</v>
       </c>
-      <c r="P118">
+      <c r="P31">
         <v>7</v>
       </c>
-      <c r="Q118">
+      <c r="Q31">
         <v>1.7649039821446082</v>
       </c>
-      <c r="R118">
+      <c r="R31">
         <v>0.28325850345539183</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
-      <c r="A119" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
-      <c r="B119">
+      <c r="B32">
         <v>80</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119" s="79">
-        <v>1</v>
-      </c>
-      <c r="F119">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="G119">
+      <c r="G32">
         <v>121</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>288</v>
       </c>
-      <c r="J119">
+      <c r="J32">
         <v>934.33</v>
       </c>
-      <c r="K119">
+      <c r="K32">
         <v>283023.03000000003</v>
       </c>
-      <c r="M119">
+      <c r="M32">
         <v>181904.32</v>
       </c>
-      <c r="P119">
+      <c r="P32">
         <v>7</v>
       </c>
-      <c r="Q119">
+      <c r="Q32">
         <v>2.2527414572181379</v>
       </c>
-      <c r="R119">
+      <c r="R32">
         <v>0.50295740384852916</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
-      <c r="A120" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
         <v>86</v>
       </c>
-      <c r="B120">
+      <c r="B33">
         <v>80</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E120" s="79">
-        <v>1</v>
-      </c>
-      <c r="F120">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="G120">
+      <c r="G33">
         <v>122</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>288</v>
       </c>
-      <c r="J120">
+      <c r="J33">
         <v>934.33</v>
       </c>
-      <c r="K120">
+      <c r="K33">
         <v>284270.5</v>
       </c>
-      <c r="M120">
+      <c r="M33">
         <v>181308.84</v>
       </c>
-      <c r="P120">
+      <c r="P33">
         <v>7</v>
       </c>
-      <c r="Q120">
+      <c r="Q33">
         <v>2.2937990406127455</v>
       </c>
-      <c r="R120">
+      <c r="R33">
         <v>0.45287879468725445</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
-      <c r="A121" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B121">
+      <c r="B34">
         <v>80</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="E121" s="79">
-        <v>1</v>
-      </c>
-      <c r="F121">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="G121">
+      <c r="G34">
         <v>123</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>288</v>
       </c>
-      <c r="J121">
+      <c r="J34">
         <v>934.33</v>
       </c>
-      <c r="K121">
+      <c r="K34">
         <v>285379.81</v>
       </c>
-      <c r="M121">
+      <c r="M34">
         <v>190202.59</v>
       </c>
-      <c r="P121">
+      <c r="P34">
         <v>7</v>
       </c>
-      <c r="Q121">
+      <c r="Q34">
         <v>2.1203758362500005</v>
       </c>
-      <c r="R121">
+      <c r="R34">
         <v>0.7610349000916663</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
-      <c r="A122" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
         <v>88</v>
       </c>
-      <c r="B122">
+      <c r="B35">
         <v>100</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122" s="79">
-        <v>1</v>
-      </c>
-      <c r="F122">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="G122">
+      <c r="G35">
         <v>124</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>288</v>
       </c>
-      <c r="J122">
+      <c r="J35">
         <v>934.33</v>
       </c>
-      <c r="K122">
+      <c r="K35">
         <v>348560.28</v>
       </c>
-      <c r="M122">
+      <c r="M35">
         <v>244957.82</v>
       </c>
-      <c r="P122">
+      <c r="P35">
         <v>7</v>
       </c>
-      <c r="Q122">
+      <c r="Q35">
         <v>2.3080749023774518</v>
       </c>
-      <c r="R122">
+      <c r="R35">
         <v>1.4028319391058823</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
-      <c r="A123" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
         <v>88</v>
       </c>
-      <c r="B123">
+      <c r="B36">
         <v>100</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="E123" s="79">
-        <v>1</v>
-      </c>
-      <c r="F123">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="G123">
+      <c r="G36">
         <v>125</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>288</v>
       </c>
-      <c r="J123">
+      <c r="J36">
         <v>934.33</v>
       </c>
-      <c r="K123">
+      <c r="K36">
         <v>362923.71</v>
       </c>
-      <c r="M123">
+      <c r="M36">
         <v>234319.96</v>
       </c>
-      <c r="P123">
+      <c r="P36">
         <v>7</v>
       </c>
-      <c r="Q123">
+      <c r="Q36">
         <v>2.8650582981004908</v>
       </c>
-      <c r="R123">
+      <c r="R36">
         <v>0.68469382926617584</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
-      <c r="A124" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
         <v>88</v>
       </c>
-      <c r="B124">
+      <c r="B37">
         <v>100</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="E124" s="79">
-        <v>1</v>
-      </c>
-      <c r="F124">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="G124">
+      <c r="G37">
         <v>126</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>288</v>
       </c>
-      <c r="J124">
+      <c r="J37">
         <v>934.33</v>
       </c>
-      <c r="K124">
+      <c r="K37">
         <v>413253.5</v>
       </c>
-      <c r="M124">
+      <c r="M37">
         <v>264688.12</v>
       </c>
-      <c r="P124">
+      <c r="P37">
         <v>7</v>
       </c>
-      <c r="Q124">
+      <c r="Q37">
         <v>3.3097672095833337</v>
       </c>
-      <c r="R124">
+      <c r="R37">
         <v>0.70003723498333337</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
-      <c r="A125" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="B125">
+      <c r="B38">
         <v>100</v>
       </c>
-      <c r="C125">
+      <c r="C38">
         <v>0</v>
       </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" s="79">
-        <v>1</v>
-      </c>
-      <c r="F125">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="G125">
+      <c r="G38">
         <v>127</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>288</v>
       </c>
-      <c r="J125">
+      <c r="J38">
         <v>934.33</v>
       </c>
-      <c r="K125">
+      <c r="K38">
         <v>314445.78000000003</v>
       </c>
-      <c r="M125">
+      <c r="M38">
         <v>201123.25</v>
       </c>
-      <c r="P125">
+      <c r="P38">
         <v>7</v>
       </c>
-      <c r="Q125">
+      <c r="Q38">
         <v>2.5246204324387262</v>
       </c>
-      <c r="R125">
+      <c r="R38">
         <v>0.52222920235294057</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
-      <c r="A126" t="s">
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
         <v>90</v>
       </c>
-      <c r="B126">
+      <c r="B39">
         <v>100</v>
       </c>
-      <c r="C126">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="D126">
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E126" s="79">
-        <v>1</v>
-      </c>
-      <c r="F126">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="G126">
+      <c r="G39">
         <v>128</v>
       </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>288</v>
       </c>
-      <c r="J126">
+      <c r="J39">
         <v>934.33</v>
       </c>
-      <c r="K126">
+      <c r="K39">
         <v>319769.46000000002</v>
       </c>
-      <c r="M126">
+      <c r="M39">
         <v>201787.5</v>
       </c>
-      <c r="P126">
+      <c r="P39">
         <v>7</v>
       </c>
-      <c r="Q126">
+      <c r="Q39">
         <v>2.6284240819117652</v>
       </c>
-      <c r="R126">
+      <c r="R39">
         <v>0.42848838683823492</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
-      <c r="A127" t="s">
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="B127">
+      <c r="B40">
         <v>100</v>
       </c>
-      <c r="C127">
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="D127">
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="E127" s="79">
-        <v>1</v>
-      </c>
-      <c r="F127">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="G127">
+      <c r="G40">
         <v>129</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>288</v>
       </c>
-      <c r="J127">
+      <c r="J40">
         <v>934.33</v>
       </c>
-      <c r="K127">
+      <c r="K40">
         <v>383054.37</v>
       </c>
-      <c r="M127">
+      <c r="M40">
         <v>242358.89</v>
       </c>
-      <c r="P127">
+      <c r="P40">
         <v>7</v>
       </c>
-      <c r="Q127">
+      <c r="Q40">
         <v>3.1344401114215685</v>
       </c>
-      <c r="R127">
+      <c r="R40">
         <v>0.53709510633676516</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
-      <c r="A128" t="s">
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
         <v>169</v>
       </c>
-      <c r="B128">
+      <c r="B41">
         <v>20</v>
       </c>
-      <c r="C128">
+      <c r="C41">
         <v>0</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128" s="79">
-        <v>1</v>
-      </c>
-      <c r="F128">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
-      <c r="G128">
+      <c r="G41">
         <v>130</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>288</v>
       </c>
-      <c r="J128">
+      <c r="J41">
         <v>934.33</v>
       </c>
-      <c r="K128">
+      <c r="K41">
         <v>62118.78</v>
       </c>
-      <c r="M128">
+      <c r="M41">
         <v>40189.17</v>
       </c>
-      <c r="P128">
+      <c r="P41">
         <v>7</v>
       </c>
-      <c r="Q128">
+      <c r="Q41">
         <v>0.48855193650735296</v>
       </c>
-      <c r="R128">
+      <c r="R41">
         <v>0.12028049801764694</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
-      <c r="A129" t="s">
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
         <v>169</v>
       </c>
-      <c r="B129">
+      <c r="B42">
         <v>20</v>
       </c>
-      <c r="C129">
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="D129">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E129" s="79">
-        <v>1</v>
-      </c>
-      <c r="F129">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="G129">
+      <c r="G42">
         <v>131</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>288</v>
       </c>
-      <c r="J129">
+      <c r="J42">
         <v>934.33</v>
       </c>
-      <c r="K129">
+      <c r="K42">
         <v>78061.3</v>
       </c>
-      <c r="M129">
+      <c r="M42">
         <v>49939.89</v>
       </c>
-      <c r="P129">
+      <c r="P42">
         <v>7</v>
       </c>
-      <c r="Q129">
+      <c r="Q42">
         <v>0.62649401028186291</v>
       </c>
-      <c r="R129">
+      <c r="R42">
         <v>0.13005370664313709</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
-      <c r="A130" t="s">
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
         <v>169</v>
       </c>
-      <c r="B130">
+      <c r="B43">
         <v>20</v>
       </c>
-      <c r="C130">
+      <c r="C43">
         <v>0</v>
       </c>
-      <c r="D130">
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="E130" s="79">
-        <v>1</v>
-      </c>
-      <c r="F130">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="G130">
+      <c r="G43">
         <v>132</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>288</v>
       </c>
-      <c r="J130">
+      <c r="J43">
         <v>934.33</v>
       </c>
-      <c r="K130">
+      <c r="K43">
         <v>101733.5</v>
       </c>
-      <c r="M130">
+      <c r="M43">
         <v>65084.160000000003</v>
       </c>
-      <c r="O130">
+      <c r="O43">
         <v>905.76</v>
       </c>
-      <c r="P130">
+      <c r="P43">
         <v>7</v>
       </c>
-      <c r="Q130">
+      <c r="Q43">
         <v>0.81648082335784311</v>
       </c>
-      <c r="R130">
+      <c r="R43">
         <v>0.16948996384215689</v>
       </c>
     </row>

--- a/Chl_SIO_pier_forcode.xlsx
+++ b/Chl_SIO_pier_forcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyssia\Desktop\Research_Material_Dr_T\Python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A19BF5-5B34-4217-9C00-1E939B1302E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC1A877-0039-40C5-8B21-D29149C646C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -42672,7 +42672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC62284-8782-40A2-98D4-94A5D66A26F8}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -42895,8 +42895,8 @@
   </sheetPr>
   <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -56838,8 +56838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B838BAB-43D6-4EC3-9D7F-3DF3470597F4}">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -56947,7 +56947,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>2.840501547898207</v>
+        <v>2.8405015478982101</v>
       </c>
       <c r="R2">
         <v>0.72640548586130682</v>
@@ -61295,8 +61295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF76F118-2B29-4A54-ACE7-89610F464ED2}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>

--- a/Chl_SIO_pier_forcode.xlsx
+++ b/Chl_SIO_pier_forcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyssia\Desktop\Research_Material_Dr_T\Python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC1A877-0039-40C5-8B21-D29149C646C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5480764-0C9D-46D0-9D43-B4C1DD295A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -862,10 +862,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -33699,41 +33699,41 @@
     </row>
     <row r="46" spans="1:24" ht="28.5" customHeight="1">
       <c r="A46" s="39"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="81"/>
     </row>
     <row r="47" spans="1:24" ht="15.5">
       <c r="A47" s="39"/>
       <c r="R47" s="83"/>
-      <c r="S47" s="82"/>
+      <c r="S47" s="81"/>
       <c r="T47" s="83"/>
-      <c r="U47" s="82"/>
+      <c r="U47" s="81"/>
     </row>
     <row r="48" spans="1:24" ht="15.5">
       <c r="A48" s="39"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
     </row>
     <row r="49" spans="1:21" ht="15.5">
       <c r="A49" s="39"/>
       <c r="G49" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
     </row>
     <row r="50" spans="1:21" ht="15.5">
       <c r="A50" s="39"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
+      <c r="R50" s="81"/>
+      <c r="S50" s="81"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="81"/>
     </row>
     <row r="51" spans="1:21" ht="28.5" customHeight="1">
       <c r="A51" s="39"/>
@@ -33750,10 +33750,10 @@
         <v>50</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="81"/>
+      <c r="U51" s="81"/>
     </row>
     <row r="52" spans="1:21" ht="15.5">
       <c r="A52" s="39"/>
@@ -33867,18 +33867,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
     <mergeCell ref="R49:S49"/>
     <mergeCell ref="R50:S50"/>
     <mergeCell ref="R51:S51"/>
     <mergeCell ref="T50:U50"/>
     <mergeCell ref="T51:U51"/>
     <mergeCell ref="T49:U49"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42672,7 +42672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC62284-8782-40A2-98D4-94A5D66A26F8}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -42895,7 +42895,7 @@
   </sheetPr>
   <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -61295,7 +61295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF76F118-2B29-4A54-ACE7-89610F464ED2}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>

--- a/Chl_SIO_pier_forcode.xlsx
+++ b/Chl_SIO_pier_forcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyssia\Desktop\Research_Material_Dr_T\Python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5480764-0C9D-46D0-9D43-B4C1DD295A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647DF77-BCF6-4700-A741-538886265095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56838,7 +56838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B838BAB-43D6-4EC3-9D7F-3DF3470597F4}">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B81" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>

--- a/Chl_SIO_pier_forcode.xlsx
+++ b/Chl_SIO_pier_forcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyssia\Desktop\Research_Material_Dr_T\Python_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647DF77-BCF6-4700-A741-538886265095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD7DBF-3318-4C82-A3C6-CDD76B265C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="not_working_data" sheetId="4" r:id="rId5"/>
     <sheet name="working_data_exp1" sheetId="5" r:id="rId6"/>
     <sheet name="working_data_exp2" sheetId="7" r:id="rId7"/>
+    <sheet name="working_data_exp3" sheetId="8" r:id="rId8"/>
+    <sheet name="working_data_exp1_anissa" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="181">
   <si>
     <t>Trilogy Fluorometer, calibrated 23 April 2021</t>
   </si>
@@ -588,6 +590,15 @@
   <si>
     <t>carboy</t>
   </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>used the one below for 229 Fa</t>
+  </si>
+  <si>
+    <t>NO NUT</t>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +611,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -644,6 +655,17 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -717,10 +739,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -863,6 +887,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,8 +896,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{541E57F7-5272-4DA2-AD0A-BC65FF20DA47}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{67313702-3132-4C7E-8E22-A83DD00D90DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -33699,41 +33727,41 @@
     </row>
     <row r="46" spans="1:24" ht="28.5" customHeight="1">
       <c r="A46" s="39"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="81"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="83"/>
     </row>
     <row r="47" spans="1:24" ht="15.5">
       <c r="A47" s="39"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="81"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="83"/>
     </row>
     <row r="48" spans="1:24" ht="15.5">
       <c r="A48" s="39"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="83"/>
     </row>
     <row r="49" spans="1:21" ht="15.5">
       <c r="A49" s="39"/>
       <c r="G49" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="83"/>
     </row>
     <row r="50" spans="1:21" ht="15.5">
       <c r="A50" s="39"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="83"/>
     </row>
     <row r="51" spans="1:21" ht="28.5" customHeight="1">
       <c r="A51" s="39"/>
@@ -33750,10 +33778,10 @@
         <v>50</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="81"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
     </row>
     <row r="52" spans="1:21" ht="15.5">
       <c r="A52" s="39"/>
@@ -56838,7 +56866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B838BAB-43D6-4EC3-9D7F-3DF3470597F4}">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView topLeftCell="B81" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -61293,10 +61321,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF76F118-2B29-4A54-ACE7-89610F464ED2}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -63340,6 +63368,6928 @@
         <v>0.16948996384215689</v>
       </c>
     </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>133</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>288</v>
+      </c>
+      <c r="J44">
+        <v>834.26</v>
+      </c>
+      <c r="K44">
+        <v>73090.399999999994</v>
+      </c>
+      <c r="M44">
+        <v>45108.04</v>
+      </c>
+      <c r="O44">
+        <v>848.91</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>0.62339622848039211</v>
+      </c>
+      <c r="R44">
+        <v>5.9952987486274485E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>134</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>288</v>
+      </c>
+      <c r="J45">
+        <v>834.26</v>
+      </c>
+      <c r="K45">
+        <v>67621.56</v>
+      </c>
+      <c r="M45">
+        <v>41531.050000000003</v>
+      </c>
+      <c r="O45">
+        <v>848.91</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>0.58124924177696069</v>
+      </c>
+      <c r="R45">
+        <v>4.7911556514706036E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>135</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>288</v>
+      </c>
+      <c r="J46">
+        <v>834.26</v>
+      </c>
+      <c r="K46">
+        <v>65929.08</v>
+      </c>
+      <c r="M46">
+        <v>40225.97</v>
+      </c>
+      <c r="O46">
+        <v>848.91</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>0.57261867241421571</v>
+      </c>
+      <c r="R46">
+        <v>3.6771251444117622E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>136</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>288</v>
+      </c>
+      <c r="J47">
+        <v>834.26</v>
+      </c>
+      <c r="K47">
+        <v>130581.48</v>
+      </c>
+      <c r="M47">
+        <v>81465.11</v>
+      </c>
+      <c r="O47">
+        <v>848.91</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>1.094223639987745</v>
+      </c>
+      <c r="R47">
+        <v>0.13990488892058836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>137</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>288</v>
+      </c>
+      <c r="J48">
+        <v>834.26</v>
+      </c>
+      <c r="K48">
+        <v>128736.68</v>
+      </c>
+      <c r="M48">
+        <v>81085.16</v>
+      </c>
+      <c r="O48">
+        <v>848.91</v>
+      </c>
+      <c r="P48">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>1.0615894388235292</v>
+      </c>
+      <c r="R48">
+        <v>0.1667831642098043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>138</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>288</v>
+      </c>
+      <c r="J49">
+        <v>834.26</v>
+      </c>
+      <c r="K49">
+        <v>144819.60999999999</v>
+      </c>
+      <c r="M49">
+        <v>90730.7</v>
+      </c>
+      <c r="O49">
+        <v>848.91</v>
+      </c>
+      <c r="P49">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>1.2050028123651959</v>
+      </c>
+      <c r="R49">
+        <v>0.16949168371813761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>139</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>288</v>
+      </c>
+      <c r="J50">
+        <v>834.26</v>
+      </c>
+      <c r="K50">
+        <v>211424.84</v>
+      </c>
+      <c r="M50">
+        <v>122544.34</v>
+      </c>
+      <c r="O50">
+        <v>848.91</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>1.9800963351715686</v>
+      </c>
+      <c r="R50">
+        <v>-0.12365170445490213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>140</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>288</v>
+      </c>
+      <c r="J51">
+        <v>834.26</v>
+      </c>
+      <c r="K51">
+        <v>183251.3</v>
+      </c>
+      <c r="M51">
+        <v>103171.2</v>
+      </c>
+      <c r="O51">
+        <v>848.91</v>
+      </c>
+      <c r="P51">
+        <v>7</v>
+      </c>
+      <c r="Q51">
+        <v>1.7840393846813727</v>
+      </c>
+      <c r="R51">
+        <v>-0.22108168068137277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>141</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>288</v>
+      </c>
+      <c r="J52">
+        <v>834.26</v>
+      </c>
+      <c r="K52">
+        <v>171926.47</v>
+      </c>
+      <c r="M52">
+        <v>108332.93</v>
+      </c>
+      <c r="O52">
+        <v>848.91</v>
+      </c>
+      <c r="P52">
+        <v>7</v>
+      </c>
+      <c r="Q52">
+        <v>1.4167487299754904</v>
+      </c>
+      <c r="R52">
+        <v>0.22440488208284262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>142</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>288</v>
+      </c>
+      <c r="J53">
+        <v>834.26</v>
+      </c>
+      <c r="K53">
+        <v>279294.46999999997</v>
+      </c>
+      <c r="M53">
+        <v>174289.09</v>
+      </c>
+      <c r="O53">
+        <v>848.91</v>
+      </c>
+      <c r="P53">
+        <v>7</v>
+      </c>
+      <c r="Q53">
+        <v>2.3393294154656861</v>
+      </c>
+      <c r="R53">
+        <v>0.30100505712598069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>143</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>288</v>
+      </c>
+      <c r="J54">
+        <v>834.26</v>
+      </c>
+      <c r="K54">
+        <v>277920.03000000003</v>
+      </c>
+      <c r="M54">
+        <v>179928.92</v>
+      </c>
+      <c r="O54">
+        <v>848.91</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>2.1830642018259807</v>
+      </c>
+      <c r="R54">
+        <v>0.54270899540735229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>144</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>288</v>
+      </c>
+      <c r="J55">
+        <v>834.26</v>
+      </c>
+      <c r="K55">
+        <v>277420.21999999997</v>
+      </c>
+      <c r="M55">
+        <v>182345.36</v>
+      </c>
+      <c r="O55">
+        <v>848.91</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="Q55">
+        <v>2.1180954411029411</v>
+      </c>
+      <c r="R55">
+        <v>0.64428480843039182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>145</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>288</v>
+      </c>
+      <c r="J56">
+        <v>834.26</v>
+      </c>
+      <c r="K56">
+        <v>403333.16</v>
+      </c>
+      <c r="M56">
+        <v>250568.5</v>
+      </c>
+      <c r="O56">
+        <v>848.91</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>3.4033195516421566</v>
+      </c>
+      <c r="R56">
+        <v>0.39258441627450946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>146</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>288</v>
+      </c>
+      <c r="J57">
+        <v>834.26</v>
+      </c>
+      <c r="K57">
+        <v>277847.21999999997</v>
+      </c>
+      <c r="M57">
+        <v>176110.39</v>
+      </c>
+      <c r="O57">
+        <v>848.91</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>2.2665120497181364</v>
+      </c>
+      <c r="R57">
+        <v>0.40141360012353067</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>147</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>288</v>
+      </c>
+      <c r="J58">
+        <v>834.26</v>
+      </c>
+      <c r="K58">
+        <v>280183.12</v>
+      </c>
+      <c r="M58">
+        <v>174930.05</v>
+      </c>
+      <c r="O58">
+        <v>848.91</v>
+      </c>
+      <c r="P58">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>2.34484749942402</v>
+      </c>
+      <c r="R58">
+        <v>0.30519698303431381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>148</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>288</v>
+      </c>
+      <c r="J59">
+        <v>834.26</v>
+      </c>
+      <c r="K59">
+        <v>228808.47</v>
+      </c>
+      <c r="M59">
+        <v>143958.22</v>
+      </c>
+      <c r="O59">
+        <v>848.91</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="Q59">
+        <v>1.8903096749387258</v>
+      </c>
+      <c r="R59">
+        <v>0.29053739287794078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>149</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>288</v>
+      </c>
+      <c r="J60">
+        <v>834.26</v>
+      </c>
+      <c r="K60">
+        <v>234494.58</v>
+      </c>
+      <c r="M60">
+        <v>149650.34</v>
+      </c>
+      <c r="O60">
+        <v>848.91</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60">
+        <v>1.8901757830392156</v>
+      </c>
+      <c r="R60">
+        <v>0.37690215934411747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>150</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>288</v>
+      </c>
+      <c r="J61">
+        <v>834.26</v>
+      </c>
+      <c r="K61">
+        <v>242404.7</v>
+      </c>
+      <c r="M61">
+        <v>153489.22</v>
+      </c>
+      <c r="O61">
+        <v>848.91</v>
+      </c>
+      <c r="P61">
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <v>1.9808756261274512</v>
+      </c>
+      <c r="R61">
+        <v>0.34435814918921537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62">
+        <v>0.2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>154</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>288</v>
+      </c>
+      <c r="J62">
+        <v>834.26</v>
+      </c>
+      <c r="K62">
+        <v>79221.8</v>
+      </c>
+      <c r="M62">
+        <v>49842.17</v>
+      </c>
+      <c r="O62">
+        <v>848.91</v>
+      </c>
+      <c r="P62">
+        <v>7</v>
+      </c>
+      <c r="Q62">
+        <v>0.65452486981617664</v>
+      </c>
+      <c r="R62">
+        <v>0.10054247054215683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63">
+        <v>0.2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>155</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>288</v>
+      </c>
+      <c r="J63">
+        <v>834.26</v>
+      </c>
+      <c r="K63">
+        <v>70199.649999999994</v>
+      </c>
+      <c r="M63">
+        <v>43661.36</v>
+      </c>
+      <c r="O63">
+        <v>848.91</v>
+      </c>
+      <c r="P63">
+        <v>7</v>
+      </c>
+      <c r="Q63">
+        <v>0.59122496802696067</v>
+      </c>
+      <c r="R63">
+        <v>7.0208251506372624E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64">
+        <v>0.2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>156</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>288</v>
+      </c>
+      <c r="J64">
+        <v>834.26</v>
+      </c>
+      <c r="K64">
+        <v>67203.48</v>
+      </c>
+      <c r="M64">
+        <v>41698.050000000003</v>
+      </c>
+      <c r="O64">
+        <v>848.91</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>0.56821472055147049</v>
+      </c>
+      <c r="R64">
+        <v>6.3475988573529554E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>157</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>288</v>
+      </c>
+      <c r="J65">
+        <v>1160.74</v>
+      </c>
+      <c r="K65">
+        <v>154628.92000000001</v>
+      </c>
+      <c r="M65">
+        <v>97127.32</v>
+      </c>
+      <c r="O65">
+        <v>911.11</v>
+      </c>
+      <c r="P65">
+        <v>7</v>
+      </c>
+      <c r="Q65">
+        <v>1.2810313558823532</v>
+      </c>
+      <c r="R65">
+        <v>0.19036660268431341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>158</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>288</v>
+      </c>
+      <c r="J66">
+        <v>1160.74</v>
+      </c>
+      <c r="K66">
+        <v>137784.47</v>
+      </c>
+      <c r="M66">
+        <v>94892.95</v>
+      </c>
+      <c r="O66">
+        <v>911.11</v>
+      </c>
+      <c r="P66">
+        <v>7</v>
+      </c>
+      <c r="Q66">
+        <v>0.95554527215686291</v>
+      </c>
+      <c r="R66">
+        <v>0.48200384288480369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>159</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>288</v>
+      </c>
+      <c r="J67">
+        <v>1160.74</v>
+      </c>
+      <c r="K67">
+        <v>120236.64</v>
+      </c>
+      <c r="M67">
+        <v>83399.490000000005</v>
+      </c>
+      <c r="O67">
+        <v>911.11</v>
+      </c>
+      <c r="P67">
+        <v>7</v>
+      </c>
+      <c r="Q67">
+        <v>0.82066488952205885</v>
+      </c>
+      <c r="R67">
+        <v>0.44276788440294107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>160</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>288</v>
+      </c>
+      <c r="J68">
+        <v>1160.74</v>
+      </c>
+      <c r="K68">
+        <v>257923.3</v>
+      </c>
+      <c r="M68">
+        <v>157148.92000000001</v>
+      </c>
+      <c r="O68">
+        <v>911.11</v>
+      </c>
+      <c r="P68">
+        <v>7</v>
+      </c>
+      <c r="Q68">
+        <v>2.245070409338235</v>
+      </c>
+      <c r="R68">
+        <v>0.13560477122843226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>161</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>288</v>
+      </c>
+      <c r="J69">
+        <v>1160.74</v>
+      </c>
+      <c r="K69">
+        <v>186894.45</v>
+      </c>
+      <c r="M69">
+        <v>123963.33</v>
+      </c>
+      <c r="O69">
+        <v>911.11</v>
+      </c>
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="Q69">
+        <v>1.4019912138235298</v>
+      </c>
+      <c r="R69">
+        <v>0.4759499329014702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>162</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>288</v>
+      </c>
+      <c r="J70">
+        <v>1160.74</v>
+      </c>
+      <c r="K70">
+        <v>288623.78000000003</v>
+      </c>
+      <c r="M70">
+        <v>192192.53</v>
+      </c>
+      <c r="O70">
+        <v>911.11</v>
+      </c>
+      <c r="P70">
+        <v>7</v>
+      </c>
+      <c r="Q70">
+        <v>2.1483133501838245</v>
+      </c>
+      <c r="R70">
+        <v>0.7632433188745088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>163</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>288</v>
+      </c>
+      <c r="J71">
+        <v>1160.74</v>
+      </c>
+      <c r="K71">
+        <v>302033.15999999997</v>
+      </c>
+      <c r="M71">
+        <v>185506.33</v>
+      </c>
+      <c r="O71">
+        <v>911.11</v>
+      </c>
+      <c r="P71">
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <v>2.5960064247181371</v>
+      </c>
+      <c r="R71">
+        <v>0.21425988617352962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>164</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>288</v>
+      </c>
+      <c r="J72">
+        <v>1160.74</v>
+      </c>
+      <c r="K72">
+        <v>238679.7</v>
+      </c>
+      <c r="M72">
+        <v>151012.95000000001</v>
+      </c>
+      <c r="O72">
+        <v>911.11</v>
+      </c>
+      <c r="P72">
+        <v>7</v>
+      </c>
+      <c r="Q72">
+        <v>1.9530561865808824</v>
+      </c>
+      <c r="R72">
+        <v>0.33466416179411795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>165</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>288</v>
+      </c>
+      <c r="J73">
+        <v>1160.74</v>
+      </c>
+      <c r="K73">
+        <v>232997.12</v>
+      </c>
+      <c r="M73">
+        <v>146442.23000000001</v>
+      </c>
+      <c r="O73">
+        <v>911.11</v>
+      </c>
+      <c r="P73">
+        <v>7</v>
+      </c>
+      <c r="Q73">
+        <v>1.9282859623897057</v>
+      </c>
+      <c r="R73">
+        <v>0.29019178691862796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>166</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>288</v>
+      </c>
+      <c r="J74">
+        <v>1160.74</v>
+      </c>
+      <c r="K74">
+        <v>396151.47</v>
+      </c>
+      <c r="M74">
+        <v>250084.66</v>
+      </c>
+      <c r="O74">
+        <v>911.11</v>
+      </c>
+      <c r="P74">
+        <v>7</v>
+      </c>
+      <c r="Q74">
+        <v>3.2541036017034308</v>
+      </c>
+      <c r="R74">
+        <v>0.53447059341323555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>167</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>288</v>
+      </c>
+      <c r="J75">
+        <v>1160.74</v>
+      </c>
+      <c r="K75">
+        <v>333618.90999999997</v>
+      </c>
+      <c r="M75">
+        <v>188363.36</v>
+      </c>
+      <c r="O75">
+        <v>911.11</v>
+      </c>
+      <c r="P75">
+        <v>7</v>
+      </c>
+      <c r="Q75">
+        <v>3.2360302003063723</v>
+      </c>
+      <c r="R75">
+        <v>-0.38248226577304006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>168</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>288</v>
+      </c>
+      <c r="J76">
+        <v>1160.74</v>
+      </c>
+      <c r="K76">
+        <v>323035.75</v>
+      </c>
+      <c r="M76">
+        <v>184458.53</v>
+      </c>
+      <c r="O76">
+        <v>911.11</v>
+      </c>
+      <c r="P76">
+        <v>7</v>
+      </c>
+      <c r="Q76">
+        <v>3.0872491205637256</v>
+      </c>
+      <c r="R76">
+        <v>-0.29285610650539273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>169</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>288</v>
+      </c>
+      <c r="J77">
+        <v>1160.74</v>
+      </c>
+      <c r="K77">
+        <v>359679.44</v>
+      </c>
+      <c r="M77">
+        <v>225368.47</v>
+      </c>
+      <c r="O77">
+        <v>911.11</v>
+      </c>
+      <c r="P77">
+        <v>7</v>
+      </c>
+      <c r="Q77">
+        <v>2.9922048083700981</v>
+      </c>
+      <c r="R77">
+        <v>0.4219397050715688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>170</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>288</v>
+      </c>
+      <c r="J78">
+        <v>1160.74</v>
+      </c>
+      <c r="K78">
+        <v>252734.23</v>
+      </c>
+      <c r="M78">
+        <v>162950.38</v>
+      </c>
+      <c r="O78">
+        <v>911.11</v>
+      </c>
+      <c r="P78">
+        <v>7</v>
+      </c>
+      <c r="Q78">
+        <v>2.0002213347426472</v>
+      </c>
+      <c r="R78">
+        <v>0.46834113027401941</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>171</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>288</v>
+      </c>
+      <c r="J79">
+        <v>1160.74</v>
+      </c>
+      <c r="K79">
+        <v>265711.69</v>
+      </c>
+      <c r="M79">
+        <v>174311.34</v>
+      </c>
+      <c r="O79">
+        <v>911.11</v>
+      </c>
+      <c r="P79">
+        <v>7</v>
+      </c>
+      <c r="Q79">
+        <v>2.0362340228553926</v>
+      </c>
+      <c r="R79">
+        <v>0.6044375186946076</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>172</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>288</v>
+      </c>
+      <c r="J80">
+        <v>1160.74</v>
+      </c>
+      <c r="K80">
+        <v>59881.82</v>
+      </c>
+      <c r="M80">
+        <v>37795.160000000003</v>
+      </c>
+      <c r="O80">
+        <v>911.11</v>
+      </c>
+      <c r="P80">
+        <v>7</v>
+      </c>
+      <c r="Q80">
+        <v>0.49205072566176467</v>
+      </c>
+      <c r="R80">
+        <v>8.0514452371568734E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>173</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>288</v>
+      </c>
+      <c r="J81">
+        <v>1160.74</v>
+      </c>
+      <c r="K81">
+        <v>59566.97</v>
+      </c>
+      <c r="M81">
+        <v>39457.839999999997</v>
+      </c>
+      <c r="O81">
+        <v>911.11</v>
+      </c>
+      <c r="P81">
+        <v>7</v>
+      </c>
+      <c r="Q81">
+        <v>0.4479949439583335</v>
+      </c>
+      <c r="R81">
+        <v>0.14975845050833328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>174</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>288</v>
+      </c>
+      <c r="J82">
+        <v>1160.74</v>
+      </c>
+      <c r="K82">
+        <v>51531.88</v>
+      </c>
+      <c r="M82">
+        <v>32728.47</v>
+      </c>
+      <c r="O82">
+        <v>911.11</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>0.41890587057598039</v>
+      </c>
+      <c r="R82">
+        <v>7.6903176199019624E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3C0FB-5BC9-4B31-9710-CDC3C7093D58}">
+  <dimension ref="A1:R82"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:18" s="81" customFormat="1">
+      <c r="A1" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>175</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>288</v>
+      </c>
+      <c r="J2">
+        <v>1160.74</v>
+      </c>
+      <c r="K2">
+        <v>238112.84</v>
+      </c>
+      <c r="M2">
+        <v>151554.07999999999</v>
+      </c>
+      <c r="O2">
+        <v>911.11</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>1.9283721789999999</v>
+      </c>
+      <c r="R2">
+        <v>0.36754583800000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>176</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>288</v>
+      </c>
+      <c r="J3">
+        <v>1160.74</v>
+      </c>
+      <c r="K3">
+        <v>242955.02</v>
+      </c>
+      <c r="M3">
+        <v>158571.03</v>
+      </c>
+      <c r="O3">
+        <v>911.11</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>1.879922248</v>
+      </c>
+      <c r="R3">
+        <v>0.522296714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>177</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>288</v>
+      </c>
+      <c r="J4">
+        <v>1160.74</v>
+      </c>
+      <c r="K4">
+        <v>226928.44</v>
+      </c>
+      <c r="M4">
+        <v>145636.41</v>
+      </c>
+      <c r="O4">
+        <v>911.11</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>1.8110389870000001</v>
+      </c>
+      <c r="R4">
+        <v>0.395231261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>178</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>288</v>
+      </c>
+      <c r="J5">
+        <v>862.98</v>
+      </c>
+      <c r="K5">
+        <v>48239.69</v>
+      </c>
+      <c r="M5">
+        <v>31693.49</v>
+      </c>
+      <c r="O5">
+        <v>881.21</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>0.36861932600000002</v>
+      </c>
+      <c r="R5">
+        <v>0.111510637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>179</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>288</v>
+      </c>
+      <c r="J6">
+        <v>862.98</v>
+      </c>
+      <c r="K6">
+        <v>52096.28</v>
+      </c>
+      <c r="M6">
+        <v>34185.69</v>
+      </c>
+      <c r="O6">
+        <v>881.21</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>0.39901545999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.11886925499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>288</v>
+      </c>
+      <c r="J7">
+        <v>862.98</v>
+      </c>
+      <c r="K7">
+        <v>65832.62</v>
+      </c>
+      <c r="M7">
+        <v>42454.3</v>
+      </c>
+      <c r="O7">
+        <v>881.21</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>0.52082656800000005</v>
+      </c>
+      <c r="R7">
+        <v>0.122320699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>181</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>288</v>
+      </c>
+      <c r="J8">
+        <v>862.98</v>
+      </c>
+      <c r="K8">
+        <v>96900.12</v>
+      </c>
+      <c r="M8">
+        <v>63300.22</v>
+      </c>
+      <c r="O8">
+        <v>881.21</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>0.74854483100000002</v>
+      </c>
+      <c r="R8">
+        <v>0.210400752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>182</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>288</v>
+      </c>
+      <c r="J9">
+        <v>862.98</v>
+      </c>
+      <c r="K9">
+        <v>100590.59</v>
+      </c>
+      <c r="M9">
+        <v>62759.360000000001</v>
+      </c>
+      <c r="O9">
+        <v>881.21</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>0.84281118899999996</v>
+      </c>
+      <c r="R9">
+        <v>0.10794081599999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>183</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>288</v>
+      </c>
+      <c r="J10">
+        <v>862.98</v>
+      </c>
+      <c r="K10">
+        <v>96640.47</v>
+      </c>
+      <c r="M10">
+        <v>63921.34</v>
+      </c>
+      <c r="O10">
+        <v>881.21</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>0.72892287300000003</v>
+      </c>
+      <c r="R10">
+        <v>0.23943216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>184</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>288</v>
+      </c>
+      <c r="J11">
+        <v>862.98</v>
+      </c>
+      <c r="K11">
+        <v>154114.31</v>
+      </c>
+      <c r="M11">
+        <v>10583.59</v>
+      </c>
+      <c r="O11">
+        <v>881.21</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>3.1976041159999999</v>
+      </c>
+      <c r="R11">
+        <v>-3.037271547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>185</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>288</v>
+      </c>
+      <c r="J12">
+        <v>862.98</v>
+      </c>
+      <c r="K12">
+        <v>172354.45</v>
+      </c>
+      <c r="M12">
+        <v>104339.11</v>
+      </c>
+      <c r="O12">
+        <v>881.21</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>1.5152584140000001</v>
+      </c>
+      <c r="R12">
+        <v>6.5392152999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>186</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>288</v>
+      </c>
+      <c r="J13">
+        <v>862.98</v>
+      </c>
+      <c r="K13">
+        <v>213438.69</v>
+      </c>
+      <c r="L13">
+        <v>195689.77</v>
+      </c>
+      <c r="M13">
+        <v>130044.81</v>
+      </c>
+      <c r="O13">
+        <v>881.21</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>1.8578643930000001</v>
+      </c>
+      <c r="R13">
+        <v>0.112206108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>187</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>288</v>
+      </c>
+      <c r="J14">
+        <v>862.98</v>
+      </c>
+      <c r="K14">
+        <v>154996.04999999999</v>
+      </c>
+      <c r="M14">
+        <v>102565.43</v>
+      </c>
+      <c r="O14">
+        <v>881.21</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>1.168059119</v>
+      </c>
+      <c r="R14">
+        <v>0.38572167400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>188</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>288</v>
+      </c>
+      <c r="J15">
+        <v>862.98</v>
+      </c>
+      <c r="K15">
+        <v>166124.60999999999</v>
+      </c>
+      <c r="M15">
+        <v>111270.74</v>
+      </c>
+      <c r="N15">
+        <v>10693.4</v>
+      </c>
+      <c r="O15">
+        <v>881.21</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>1.222044734</v>
+      </c>
+      <c r="R15">
+        <v>0.463614252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>189</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>288</v>
+      </c>
+      <c r="J16">
+        <v>862.98</v>
+      </c>
+      <c r="K16">
+        <v>161099.95000000001</v>
+      </c>
+      <c r="M16">
+        <v>106645.69</v>
+      </c>
+      <c r="O16">
+        <v>881.21</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>1.213142148</v>
+      </c>
+      <c r="R16">
+        <v>0.40245118400000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>190</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>288</v>
+      </c>
+      <c r="J17">
+        <v>862.98</v>
+      </c>
+      <c r="K17">
+        <v>218514.73</v>
+      </c>
+      <c r="M17">
+        <v>145747.10999999999</v>
+      </c>
+      <c r="O17">
+        <v>881.21</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>1.621130593</v>
+      </c>
+      <c r="R17">
+        <v>0.58681666700000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>191</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>288</v>
+      </c>
+      <c r="J18">
+        <v>862.98</v>
+      </c>
+      <c r="K18">
+        <v>223903.91</v>
+      </c>
+      <c r="M18">
+        <v>153606.67000000001</v>
+      </c>
+      <c r="O18">
+        <v>881.21</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>1.5660950069999999</v>
+      </c>
+      <c r="R18">
+        <v>0.76091803800000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>192</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>288</v>
+      </c>
+      <c r="J19">
+        <v>862.98</v>
+      </c>
+      <c r="K19">
+        <v>270472.84000000003</v>
+      </c>
+      <c r="M19">
+        <v>174001.94</v>
+      </c>
+      <c r="N19">
+        <v>173340.78</v>
+      </c>
+      <c r="O19">
+        <v>881.21</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>2.1491966800000002</v>
+      </c>
+      <c r="R19">
+        <v>0.48678770900000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>193</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>288</v>
+      </c>
+      <c r="J20">
+        <v>862.98</v>
+      </c>
+      <c r="K20">
+        <v>258763.92</v>
+      </c>
+      <c r="M20">
+        <v>161380.60999999999</v>
+      </c>
+      <c r="O20">
+        <v>881.21</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>2.1695235199999998</v>
+      </c>
+      <c r="R20">
+        <v>0.27525823700000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>194</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>288</v>
+      </c>
+      <c r="J21">
+        <v>862.98</v>
+      </c>
+      <c r="K21">
+        <v>273551.09000000003</v>
+      </c>
+      <c r="M21">
+        <v>177814.16</v>
+      </c>
+      <c r="O21">
+        <v>881.21</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>2.13284516</v>
+      </c>
+      <c r="R21">
+        <v>0.56089118599999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>195</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>288</v>
+      </c>
+      <c r="J22">
+        <v>862.98</v>
+      </c>
+      <c r="K22">
+        <v>214121.41</v>
+      </c>
+      <c r="M22">
+        <v>143306.59</v>
+      </c>
+      <c r="O22">
+        <v>881.21</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <v>1.577625751</v>
+      </c>
+      <c r="R22">
+        <v>0.59334966499999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>196</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>288</v>
+      </c>
+      <c r="J23">
+        <v>862.98</v>
+      </c>
+      <c r="K23">
+        <v>47967.38</v>
+      </c>
+      <c r="M23">
+        <v>31276.23</v>
+      </c>
+      <c r="O23">
+        <v>881.21</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>0.37184854899999997</v>
+      </c>
+      <c r="R23">
+        <v>0.101960272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>197</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>288</v>
+      </c>
+      <c r="J24">
+        <v>862.98</v>
+      </c>
+      <c r="K24">
+        <v>49564.09</v>
+      </c>
+      <c r="M24">
+        <v>32689.48</v>
+      </c>
+      <c r="O24">
+        <v>881.21</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>0.37593570500000001</v>
+      </c>
+      <c r="R24">
+        <v>0.119282676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>198</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>288</v>
+      </c>
+      <c r="J25">
+        <v>862.98</v>
+      </c>
+      <c r="K25">
+        <v>57042.26</v>
+      </c>
+      <c r="L25">
+        <v>57951.72</v>
+      </c>
+      <c r="M25">
+        <v>38310.550000000003</v>
+      </c>
+      <c r="O25">
+        <v>881.21</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>0.41730852499999999</v>
+      </c>
+      <c r="R25">
+        <v>0.16306438200000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>199</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>288</v>
+      </c>
+      <c r="J26">
+        <v>862.98</v>
+      </c>
+      <c r="K26">
+        <v>97019.199999999997</v>
+      </c>
+      <c r="M26">
+        <v>63839.8</v>
+      </c>
+      <c r="O26">
+        <v>881.21</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>0.73917685399999999</v>
+      </c>
+      <c r="R26">
+        <v>0.227942916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>288</v>
+      </c>
+      <c r="J27">
+        <v>862.98</v>
+      </c>
+      <c r="K27">
+        <v>119884.7</v>
+      </c>
+      <c r="M27">
+        <v>76576.66</v>
+      </c>
+      <c r="N27">
+        <v>76207.63</v>
+      </c>
+      <c r="O27">
+        <v>881.21</v>
+      </c>
+      <c r="P27">
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <v>0.96482458199999999</v>
+      </c>
+      <c r="R27">
+        <v>0.195248003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>201</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>288</v>
+      </c>
+      <c r="J28">
+        <v>862.98</v>
+      </c>
+      <c r="K28">
+        <v>104904.7</v>
+      </c>
+      <c r="M28">
+        <v>69837.86</v>
+      </c>
+      <c r="O28">
+        <v>881.21</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>0.78122559400000002</v>
+      </c>
+      <c r="R28">
+        <v>0.27675978699999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>202</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>288</v>
+      </c>
+      <c r="J29">
+        <v>862.98</v>
+      </c>
+      <c r="K29">
+        <v>128243.55</v>
+      </c>
+      <c r="M29">
+        <v>85921.05</v>
+      </c>
+      <c r="O29">
+        <v>881.21</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>0.94286853900000001</v>
+      </c>
+      <c r="R29">
+        <v>0.35876376799999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>203</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>288</v>
+      </c>
+      <c r="J30">
+        <v>862.98</v>
+      </c>
+      <c r="K30">
+        <v>132787.88</v>
+      </c>
+      <c r="M30">
+        <v>87876.58</v>
+      </c>
+      <c r="O30">
+        <v>881.21</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>1.0005423069999999</v>
+      </c>
+      <c r="R30">
+        <v>0.33071464900000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>204</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>288</v>
+      </c>
+      <c r="J31">
+        <v>862.98</v>
+      </c>
+      <c r="K31">
+        <v>139308.84</v>
+      </c>
+      <c r="M31">
+        <v>91022.56</v>
+      </c>
+      <c r="O31">
+        <v>881.21</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>1.07573074</v>
+      </c>
+      <c r="R31">
+        <v>0.30318519199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>205</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>288</v>
+      </c>
+      <c r="J32">
+        <v>862.98</v>
+      </c>
+      <c r="K32">
+        <v>376070.44</v>
+      </c>
+      <c r="M32">
+        <v>234716.53</v>
+      </c>
+      <c r="O32">
+        <v>881.21</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>3.1491087379999998</v>
+      </c>
+      <c r="R32">
+        <v>0.40665109500000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>206</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>288</v>
+      </c>
+      <c r="J33">
+        <v>862.98</v>
+      </c>
+      <c r="K33">
+        <v>298375.03000000003</v>
+      </c>
+      <c r="L33">
+        <v>300077.44</v>
+      </c>
+      <c r="M33">
+        <v>193490.84</v>
+      </c>
+      <c r="O33">
+        <v>881.21</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>2.336629522</v>
+      </c>
+      <c r="R33">
+        <v>0.59459546200000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>207</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>288</v>
+      </c>
+      <c r="J34">
+        <v>862.98</v>
+      </c>
+      <c r="K34">
+        <v>381409.78</v>
+      </c>
+      <c r="M34">
+        <v>242786.5</v>
+      </c>
+      <c r="O34">
+        <v>881.21</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <v>3.088275254</v>
+      </c>
+      <c r="R34">
+        <v>0.58973789899999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>208</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>288</v>
+      </c>
+      <c r="J35">
+        <v>862.98</v>
+      </c>
+      <c r="K35">
+        <v>230243.81</v>
+      </c>
+      <c r="M35">
+        <v>150481.01999999999</v>
+      </c>
+      <c r="O35">
+        <v>881.21</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>1.776970293</v>
+      </c>
+      <c r="R35">
+        <v>0.50269175899999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>209</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>288</v>
+      </c>
+      <c r="J36">
+        <v>862.98</v>
+      </c>
+      <c r="K36">
+        <v>222013.27</v>
+      </c>
+      <c r="M36">
+        <v>148992.41</v>
+      </c>
+      <c r="O36">
+        <v>881.21</v>
+      </c>
+      <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>1.626772321</v>
+      </c>
+      <c r="R36">
+        <v>0.63033852999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>210</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>288</v>
+      </c>
+      <c r="J37">
+        <v>862.98</v>
+      </c>
+      <c r="K37">
+        <v>270885.58</v>
+      </c>
+      <c r="M37">
+        <v>187263.95</v>
+      </c>
+      <c r="N37">
+        <v>178528.97</v>
+      </c>
+      <c r="O37">
+        <v>881.21</v>
+      </c>
+      <c r="P37">
+        <v>7</v>
+      </c>
+      <c r="Q37">
+        <v>1.86293825</v>
+      </c>
+      <c r="R37">
+        <v>0.97395453899999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>211</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>288</v>
+      </c>
+      <c r="J38">
+        <v>862.98</v>
+      </c>
+      <c r="K38">
+        <v>163532.19</v>
+      </c>
+      <c r="M38">
+        <v>112141.98</v>
+      </c>
+      <c r="O38">
+        <v>881.21</v>
+      </c>
+      <c r="P38">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>1.1448806709999999</v>
+      </c>
+      <c r="R38">
+        <v>0.55397687399999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>212</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>168</v>
+      </c>
+      <c r="J39">
+        <v>862.98</v>
+      </c>
+      <c r="K39">
+        <v>118390.27</v>
+      </c>
+      <c r="L39">
+        <v>116571.69</v>
+      </c>
+      <c r="M39">
+        <v>79783.039999999994</v>
+      </c>
+      <c r="O39">
+        <v>881.21</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>1.4744555340000001</v>
+      </c>
+      <c r="R39">
+        <v>0.59751001500000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>213</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>288</v>
+      </c>
+      <c r="J40">
+        <v>862.98</v>
+      </c>
+      <c r="K40">
+        <v>151538.28</v>
+      </c>
+      <c r="M40">
+        <v>99229.759999999995</v>
+      </c>
+      <c r="O40">
+        <v>881.21</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>1.1653389519999999</v>
+      </c>
+      <c r="R40">
+        <v>0.33790922000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>214</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <v>862.98</v>
+      </c>
+      <c r="K41">
+        <v>39694.69</v>
+      </c>
+      <c r="M41">
+        <v>25586.27</v>
+      </c>
+      <c r="O41">
+        <v>881.21</v>
+      </c>
+      <c r="P41">
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <v>0.45260641299999999</v>
+      </c>
+      <c r="R41">
+        <v>0.10555295000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>215</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>288</v>
+      </c>
+      <c r="J42">
+        <v>862.98</v>
+      </c>
+      <c r="K42">
+        <v>42798.13</v>
+      </c>
+      <c r="M42">
+        <v>28370.77</v>
+      </c>
+      <c r="O42">
+        <v>881.21</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+      <c r="Q42">
+        <v>0.32141541400000001</v>
+      </c>
+      <c r="R42">
+        <v>0.10837811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>216</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>288</v>
+      </c>
+      <c r="J43">
+        <v>862.98</v>
+      </c>
+      <c r="K43">
+        <v>38235.64</v>
+      </c>
+      <c r="M43">
+        <v>24264.93</v>
+      </c>
+      <c r="O43">
+        <v>881.21</v>
+      </c>
+      <c r="P43">
+        <v>7</v>
+      </c>
+      <c r="Q43">
+        <v>0.31124207999999998</v>
+      </c>
+      <c r="R43">
+        <v>5.6351389000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>217</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>288</v>
+      </c>
+      <c r="J44">
+        <v>773.59</v>
+      </c>
+      <c r="K44">
+        <v>57786.66</v>
+      </c>
+      <c r="M44">
+        <v>35939.08</v>
+      </c>
+      <c r="O44">
+        <v>734.79</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>0.486724457</v>
+      </c>
+      <c r="R44">
+        <v>5.7722655999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>218</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>288</v>
+      </c>
+      <c r="J45">
+        <v>773.59</v>
+      </c>
+      <c r="K45">
+        <v>54794.06</v>
+      </c>
+      <c r="M45">
+        <v>35042.76</v>
+      </c>
+      <c r="O45">
+        <v>734.79</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>0.44002314100000001</v>
+      </c>
+      <c r="R45">
+        <v>9.0845470999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>219</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>288</v>
+      </c>
+      <c r="J46">
+        <v>773.59</v>
+      </c>
+      <c r="K46">
+        <v>55932.54</v>
+      </c>
+      <c r="M46">
+        <v>35934.79</v>
+      </c>
+      <c r="O46">
+        <v>734.79</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>0.44551360000000001</v>
+      </c>
+      <c r="R46">
+        <v>9.8868523E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>220</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>288</v>
+      </c>
+      <c r="J47">
+        <v>773.59</v>
+      </c>
+      <c r="K47">
+        <v>126376.13</v>
+      </c>
+      <c r="M47">
+        <v>80267.73</v>
+      </c>
+      <c r="O47">
+        <v>734.79</v>
+      </c>
+      <c r="P47">
+        <v>7</v>
+      </c>
+      <c r="Q47">
+        <v>1.0272115239999999</v>
+      </c>
+      <c r="R47">
+        <v>0.18877769599999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>221</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>288</v>
+      </c>
+      <c r="J48">
+        <v>773.59</v>
+      </c>
+      <c r="K48">
+        <v>117147.33</v>
+      </c>
+      <c r="M48">
+        <v>76379.98</v>
+      </c>
+      <c r="O48">
+        <v>734.79</v>
+      </c>
+      <c r="P48">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>0.90822261699999995</v>
+      </c>
+      <c r="R48">
+        <v>0.24887043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>222</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>288</v>
+      </c>
+      <c r="J49">
+        <v>773.59</v>
+      </c>
+      <c r="K49">
+        <v>112052.53</v>
+      </c>
+      <c r="M49">
+        <v>74052.53</v>
+      </c>
+      <c r="O49">
+        <v>734.79</v>
+      </c>
+      <c r="P49">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>0.84657107799999998</v>
+      </c>
+      <c r="R49">
+        <v>0.27526304099999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>223</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>288</v>
+      </c>
+      <c r="J50">
+        <v>773.59</v>
+      </c>
+      <c r="K50">
+        <v>192887.69</v>
+      </c>
+      <c r="L50">
+        <v>204236.08</v>
+      </c>
+      <c r="M50">
+        <v>121014.06</v>
+      </c>
+      <c r="O50">
+        <v>734.79</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>1.601214117</v>
+      </c>
+      <c r="R50">
+        <v>0.23204804700000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>224</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>288</v>
+      </c>
+      <c r="J51">
+        <v>773.59</v>
+      </c>
+      <c r="K51">
+        <v>168023.22</v>
+      </c>
+      <c r="M51">
+        <v>105375.41</v>
+      </c>
+      <c r="O51">
+        <v>734.79</v>
+      </c>
+      <c r="P51">
+        <v>7</v>
+      </c>
+      <c r="Q51">
+        <v>1.395679581</v>
+      </c>
+      <c r="R51">
+        <v>0.20067006800000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>225</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>288</v>
+      </c>
+      <c r="J52">
+        <v>773.59</v>
+      </c>
+      <c r="K52">
+        <v>162566.82999999999</v>
+      </c>
+      <c r="M52">
+        <v>107617.63</v>
+      </c>
+      <c r="O52">
+        <v>734.79</v>
+      </c>
+      <c r="P52">
+        <v>7</v>
+      </c>
+      <c r="Q52">
+        <v>1.224168513</v>
+      </c>
+      <c r="R52">
+        <v>0.40614889999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>226</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>288</v>
+      </c>
+      <c r="J53">
+        <v>773.59</v>
+      </c>
+      <c r="K53">
+        <v>222168.73</v>
+      </c>
+      <c r="M53">
+        <v>147444.62</v>
+      </c>
+      <c r="O53">
+        <v>734.79</v>
+      </c>
+      <c r="P53">
+        <v>7</v>
+      </c>
+      <c r="Q53">
+        <v>1.6647176420000001</v>
+      </c>
+      <c r="R53">
+        <v>0.56894548099999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>227</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>288</v>
+      </c>
+      <c r="J54">
+        <v>773.59</v>
+      </c>
+      <c r="K54">
+        <v>212466.56</v>
+      </c>
+      <c r="M54">
+        <v>137576.70000000001</v>
+      </c>
+      <c r="O54">
+        <v>734.79</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>1.6684102510000001</v>
+      </c>
+      <c r="R54">
+        <v>0.41576210699999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>228</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>288</v>
+      </c>
+      <c r="J55">
+        <v>773.59</v>
+      </c>
+      <c r="K55">
+        <v>233583.52</v>
+      </c>
+      <c r="L55" t="s">
+        <v>179</v>
+      </c>
+      <c r="M55">
+        <v>149064.66</v>
+      </c>
+      <c r="O55">
+        <v>734.79</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="Q55">
+        <v>1.8829269070000001</v>
+      </c>
+      <c r="R55">
+        <v>0.37527847199999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>229</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>288</v>
+      </c>
+      <c r="J56">
+        <v>773.59</v>
+      </c>
+      <c r="K56">
+        <v>322417.06</v>
+      </c>
+      <c r="L56">
+        <v>314601.44</v>
+      </c>
+      <c r="M56">
+        <v>201019.66</v>
+      </c>
+      <c r="O56">
+        <v>734.79</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>2.7045138899999999</v>
+      </c>
+      <c r="R56">
+        <v>0.340766442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>230</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>288</v>
+      </c>
+      <c r="J57">
+        <v>773.59</v>
+      </c>
+      <c r="K57">
+        <v>248943.95</v>
+      </c>
+      <c r="M57">
+        <v>160192.85999999999</v>
+      </c>
+      <c r="O57">
+        <v>734.79</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>1.977213315</v>
+      </c>
+      <c r="R57">
+        <v>0.44957501999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>231</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>288</v>
+      </c>
+      <c r="J58">
+        <v>773.59</v>
+      </c>
+      <c r="K58">
+        <v>239980.48</v>
+      </c>
+      <c r="M58">
+        <v>157932.42000000001</v>
+      </c>
+      <c r="O58">
+        <v>734.79</v>
+      </c>
+      <c r="P58">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>1.8278819639999999</v>
+      </c>
+      <c r="R58">
+        <v>0.56466258899999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>232</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>288</v>
+      </c>
+      <c r="J59">
+        <v>773.59</v>
+      </c>
+      <c r="K59">
+        <v>256551.14</v>
+      </c>
+      <c r="M59">
+        <v>168298.12</v>
+      </c>
+      <c r="O59">
+        <v>734.79</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="Q59">
+        <v>1.966117219</v>
+      </c>
+      <c r="R59">
+        <v>0.58345905099999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>233</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>288</v>
+      </c>
+      <c r="J60">
+        <v>773.59</v>
+      </c>
+      <c r="K60">
+        <v>234593.83</v>
+      </c>
+      <c r="M60">
+        <v>152194.66</v>
+      </c>
+      <c r="O60">
+        <v>734.79</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60">
+        <v>1.8357040579999999</v>
+      </c>
+      <c r="R60">
+        <v>0.469918212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>234</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>288</v>
+      </c>
+      <c r="J61">
+        <v>773.59</v>
+      </c>
+      <c r="K61">
+        <v>267270</v>
+      </c>
+      <c r="M61">
+        <v>177281.2</v>
+      </c>
+      <c r="O61">
+        <v>734.79</v>
+      </c>
+      <c r="P61">
+        <v>7</v>
+      </c>
+      <c r="Q61">
+        <v>2.004787249</v>
+      </c>
+      <c r="R61">
+        <v>0.68087519699999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>235</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>288</v>
+      </c>
+      <c r="J62">
+        <v>773.59</v>
+      </c>
+      <c r="K62">
+        <v>71384.09</v>
+      </c>
+      <c r="L62">
+        <v>72263.33</v>
+      </c>
+      <c r="M62">
+        <v>46664.39</v>
+      </c>
+      <c r="O62">
+        <v>734.79</v>
+      </c>
+      <c r="P62">
+        <v>7</v>
+      </c>
+      <c r="Q62">
+        <v>0.55071008099999996</v>
+      </c>
+      <c r="R62">
+        <v>0.15621653999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>236</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>288</v>
+      </c>
+      <c r="J63">
+        <v>773.59</v>
+      </c>
+      <c r="K63">
+        <v>55247.17</v>
+      </c>
+      <c r="M63">
+        <v>37199.760000000002</v>
+      </c>
+      <c r="O63">
+        <v>734.79</v>
+      </c>
+      <c r="P63">
+        <v>7</v>
+      </c>
+      <c r="Q63">
+        <v>0.40206356199999999</v>
+      </c>
+      <c r="R63">
+        <v>0.16148180200000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>237</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>288</v>
+      </c>
+      <c r="J64">
+        <v>773.59</v>
+      </c>
+      <c r="K64">
+        <v>56567.29</v>
+      </c>
+      <c r="M64">
+        <v>37784.120000000003</v>
+      </c>
+      <c r="O64">
+        <v>734.79</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>0.41845495999999999</v>
+      </c>
+      <c r="R64">
+        <v>0.15394297100000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>238</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>288</v>
+      </c>
+      <c r="J65">
+        <v>773.59</v>
+      </c>
+      <c r="K65">
+        <v>127426.27</v>
+      </c>
+      <c r="L65">
+        <v>142955.81</v>
+      </c>
+      <c r="M65">
+        <v>82604.34</v>
+      </c>
+      <c r="O65">
+        <v>734.79</v>
+      </c>
+      <c r="P65">
+        <v>7</v>
+      </c>
+      <c r="Q65">
+        <v>0.99855130599999997</v>
+      </c>
+      <c r="R65">
+        <v>0.25283560799999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>239</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>288</v>
+      </c>
+      <c r="J66">
+        <v>773.59</v>
+      </c>
+      <c r="K66">
+        <v>108247.48</v>
+      </c>
+      <c r="M66">
+        <v>71209.42</v>
+      </c>
+      <c r="O66">
+        <v>734.79</v>
+      </c>
+      <c r="P66">
+        <v>7</v>
+      </c>
+      <c r="Q66">
+        <v>0.82514080000000001</v>
+      </c>
+      <c r="R66">
+        <v>0.25362257199999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>240</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>288</v>
+      </c>
+      <c r="J67">
+        <v>773.59</v>
+      </c>
+      <c r="K67">
+        <v>110342.59</v>
+      </c>
+      <c r="M67">
+        <v>70887.66</v>
+      </c>
+      <c r="O67">
+        <v>734.79</v>
+      </c>
+      <c r="P67">
+        <v>7</v>
+      </c>
+      <c r="Q67">
+        <v>0.87898427999999995</v>
+      </c>
+      <c r="R67">
+        <v>0.19490469599999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>241</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>288</v>
+      </c>
+      <c r="J68">
+        <v>773.59</v>
+      </c>
+      <c r="K68">
+        <v>219186.91</v>
+      </c>
+      <c r="L68">
+        <v>262589.90999999997</v>
+      </c>
+      <c r="M68">
+        <v>136330.5</v>
+      </c>
+      <c r="O68">
+        <v>734.79</v>
+      </c>
+      <c r="P68">
+        <v>7</v>
+      </c>
+      <c r="Q68">
+        <v>1.845890536</v>
+      </c>
+      <c r="R68">
+        <v>0.21940293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>242</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>288</v>
+      </c>
+      <c r="J69">
+        <v>773.59</v>
+      </c>
+      <c r="K69">
+        <v>153080.09</v>
+      </c>
+      <c r="M69">
+        <v>101713.27</v>
+      </c>
+      <c r="O69">
+        <v>734.79</v>
+      </c>
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="Q69">
+        <v>1.144359584</v>
+      </c>
+      <c r="R69">
+        <v>0.396511695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>93</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>243</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>288</v>
+      </c>
+      <c r="J70">
+        <v>773.59</v>
+      </c>
+      <c r="K70">
+        <v>147113.44</v>
+      </c>
+      <c r="M70">
+        <v>96472.12</v>
+      </c>
+      <c r="O70">
+        <v>734.79</v>
+      </c>
+      <c r="P70">
+        <v>7</v>
+      </c>
+      <c r="Q70">
+        <v>1.12819676</v>
+      </c>
+      <c r="R70">
+        <v>0.33327546400000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71">
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>244</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>288</v>
+      </c>
+      <c r="J71">
+        <v>773.59</v>
+      </c>
+      <c r="K71">
+        <v>261274.56</v>
+      </c>
+      <c r="L71">
+        <v>263802.15999999997</v>
+      </c>
+      <c r="M71">
+        <v>166860.62</v>
+      </c>
+      <c r="O71">
+        <v>734.79</v>
+      </c>
+      <c r="P71">
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <v>2.103371342</v>
+      </c>
+      <c r="R71">
+        <v>0.42442800000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>245</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>288</v>
+      </c>
+      <c r="J72">
+        <v>773.59</v>
+      </c>
+      <c r="K72">
+        <v>193138.83</v>
+      </c>
+      <c r="M72">
+        <v>125602.77</v>
+      </c>
+      <c r="O72">
+        <v>734.79</v>
+      </c>
+      <c r="P72">
+        <v>7</v>
+      </c>
+      <c r="Q72">
+        <v>1.504580925</v>
+      </c>
+      <c r="R72">
+        <v>0.39819637200000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>246</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>288</v>
+      </c>
+      <c r="J73">
+        <v>773.59</v>
+      </c>
+      <c r="K73">
+        <v>195996.08</v>
+      </c>
+      <c r="M73">
+        <v>125979.27</v>
+      </c>
+      <c r="O73">
+        <v>734.79</v>
+      </c>
+      <c r="P73">
+        <v>7</v>
+      </c>
+      <c r="Q73">
+        <v>1.5598475359999999</v>
+      </c>
+      <c r="R73">
+        <v>0.34863342200000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>247</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>288</v>
+      </c>
+      <c r="J74">
+        <v>773.59</v>
+      </c>
+      <c r="K74">
+        <v>258780.17</v>
+      </c>
+      <c r="M74">
+        <v>165737.5</v>
+      </c>
+      <c r="O74">
+        <v>734.79</v>
+      </c>
+      <c r="P74">
+        <v>7</v>
+      </c>
+      <c r="Q74">
+        <v>2.0728219339999998</v>
+      </c>
+      <c r="R74">
+        <v>0.43796307699999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>248</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>288</v>
+      </c>
+      <c r="J75">
+        <v>773.59</v>
+      </c>
+      <c r="K75">
+        <v>273620.5</v>
+      </c>
+      <c r="M75">
+        <v>179431.81</v>
+      </c>
+      <c r="O75">
+        <v>734.79</v>
+      </c>
+      <c r="P75">
+        <v>7</v>
+      </c>
+      <c r="Q75">
+        <v>2.0983531809999998</v>
+      </c>
+      <c r="R75">
+        <v>0.61988921399999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>249</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>288</v>
+      </c>
+      <c r="J76">
+        <v>773.59</v>
+      </c>
+      <c r="K76">
+        <v>283015.96999999997</v>
+      </c>
+      <c r="M76">
+        <v>179266.3</v>
+      </c>
+      <c r="O76">
+        <v>734.79</v>
+      </c>
+      <c r="P76">
+        <v>7</v>
+      </c>
+      <c r="Q76">
+        <v>2.3113544739999998</v>
+      </c>
+      <c r="R76">
+        <v>0.40438058199999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>250</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>288</v>
+      </c>
+      <c r="J77">
+        <v>773.59</v>
+      </c>
+      <c r="K77">
+        <v>224106.34</v>
+      </c>
+      <c r="M77">
+        <v>149460.51999999999</v>
+      </c>
+      <c r="O77">
+        <v>734.79</v>
+      </c>
+      <c r="P77">
+        <v>7</v>
+      </c>
+      <c r="Q77">
+        <v>1.662973483</v>
+      </c>
+      <c r="R77">
+        <v>0.60122884499999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>251</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>288</v>
+      </c>
+      <c r="J78">
+        <v>773.59</v>
+      </c>
+      <c r="K78">
+        <v>215457.3</v>
+      </c>
+      <c r="M78">
+        <v>146029.14000000001</v>
+      </c>
+      <c r="O78">
+        <v>734.79</v>
+      </c>
+      <c r="P78">
+        <v>7</v>
+      </c>
+      <c r="Q78">
+        <v>1.546733481</v>
+      </c>
+      <c r="R78">
+        <v>0.665486299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>252</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>288</v>
+      </c>
+      <c r="J79">
+        <v>773.59</v>
+      </c>
+      <c r="K79">
+        <v>245073.59</v>
+      </c>
+      <c r="L79">
+        <v>262589.90999999997</v>
+      </c>
+      <c r="M79">
+        <v>160474.16</v>
+      </c>
+      <c r="O79">
+        <v>734.79</v>
+      </c>
+      <c r="P79">
+        <v>7</v>
+      </c>
+      <c r="Q79">
+        <v>1.88472186</v>
+      </c>
+      <c r="R79">
+        <v>0.54632793499999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>253</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>288</v>
+      </c>
+      <c r="J80">
+        <v>773.59</v>
+      </c>
+      <c r="K80">
+        <v>50016.01</v>
+      </c>
+      <c r="M80">
+        <v>33129.410000000003</v>
+      </c>
+      <c r="O80">
+        <v>734.79</v>
+      </c>
+      <c r="P80">
+        <v>7</v>
+      </c>
+      <c r="Q80">
+        <v>0.37620281999999999</v>
+      </c>
+      <c r="R80">
+        <v>0.125680133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>254</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>288</v>
+      </c>
+      <c r="J81">
+        <v>773.59</v>
+      </c>
+      <c r="K81">
+        <v>51352.69</v>
+      </c>
+      <c r="M81">
+        <v>33171.03</v>
+      </c>
+      <c r="O81">
+        <v>734.79</v>
+      </c>
+      <c r="P81">
+        <v>7</v>
+      </c>
+      <c r="Q81">
+        <v>0.40505440799999998</v>
+      </c>
+      <c r="R81">
+        <v>9.7459054000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>255</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>288</v>
+      </c>
+      <c r="J82">
+        <v>773.59</v>
+      </c>
+      <c r="K82">
+        <v>72268.56</v>
+      </c>
+      <c r="L82">
+        <v>72200.7</v>
+      </c>
+      <c r="M82">
+        <v>47106.23</v>
+      </c>
+      <c r="O82">
+        <v>734.79</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>0.56057107500000003</v>
+      </c>
+      <c r="R82">
+        <v>0.15304905399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63157D4F-85D7-4B2A-AEE3-FBFCB42E8167}">
+  <dimension ref="A1:R44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="82">
+        <v>1</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="82">
+        <v>1</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="Q2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="82">
+        <v>2</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="82">
+        <v>1</v>
+      </c>
+      <c r="G3" s="82"/>
+      <c r="Q3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82">
+        <v>1</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="82">
+        <v>1</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="Q5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82">
+        <v>2</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="82">
+        <v>1</v>
+      </c>
+      <c r="G6" s="82"/>
+      <c r="Q6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82">
+        <v>3</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="82">
+        <v>1</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="Q7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82">
+        <v>1</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="82">
+        <v>1</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="Q8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82">
+        <v>2</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="82">
+        <v>1</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="Q9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82">
+        <v>3</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="82">
+        <v>1</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="Q10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82">
+        <v>1</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="82">
+        <v>1</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="Q11">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82">
+        <v>2</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="82">
+        <v>1</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="Q12">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82">
+        <v>3</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="82">
+        <v>1</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="Q13">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82">
+        <v>1</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="82">
+        <v>1</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="Q14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82">
+        <v>2</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="82">
+        <v>1</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="Q15">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82">
+        <v>3</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="82">
+        <v>1</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="Q16">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82">
+        <v>1</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="82">
+        <v>1</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="Q17">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82">
+        <v>2</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="82">
+        <v>1</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="Q18">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82">
+        <v>3</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="82">
+        <v>1</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="Q19">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82">
+        <v>1</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="82">
+        <v>1</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="Q20">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82">
+        <v>2</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="82">
+        <v>1</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="Q21">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82">
+        <v>3</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="82">
+        <v>1</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="Q22">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82">
+        <v>1</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="82">
+        <v>1</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="Q23">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82">
+        <v>2</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="Q24">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82">
+        <v>3</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="82">
+        <v>1</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="Q25">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0.8</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82">
+        <v>1</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="82">
+        <v>1</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="Q26">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82">
+        <v>2</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="82">
+        <v>1</v>
+      </c>
+      <c r="G27" s="82"/>
+      <c r="Q27">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82">
+        <v>3</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="82">
+        <v>1</v>
+      </c>
+      <c r="G28" s="82"/>
+      <c r="Q28">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82">
+        <v>1</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="82">
+        <v>1</v>
+      </c>
+      <c r="G29" s="82"/>
+      <c r="Q29">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82">
+        <v>2</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="82">
+        <v>1</v>
+      </c>
+      <c r="G30" s="82"/>
+      <c r="Q30">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82">
+        <v>3</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="82">
+        <v>1</v>
+      </c>
+      <c r="G31" s="82"/>
+      <c r="Q31">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82">
+        <v>1</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="82">
+        <v>1</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="Q32">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="82"/>
+      <c r="F33" s="82"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="82"/>
+      <c r="F34" s="82"/>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="82"/>
+      <c r="F35" s="82"/>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="82"/>
+      <c r="F36" s="82"/>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="82"/>
+      <c r="F37" s="82"/>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="82"/>
+      <c r="F38" s="82"/>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="F39" s="82"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="F40" s="82"/>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="F41" s="82"/>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="F42" s="82"/>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="F43" s="82"/>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="F44" s="82"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
